--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/686E0EB5-7A4F-4BA9-990C-1A00608B1930/Library/Application Support/Drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{D29D3083-B2BA-9249-AA99-98BFFE77A6AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0D7E1DAD-6C22-3A42-B2CE-B042C6A73325}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Config" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="DATE_TARGET">Summary!$C$3</definedName>
+    <definedName name="PROFIT_RANGE">Summary!$B$7:$E$9</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +117,21 @@
   </si>
   <si>
     <t>Start searching from column B, row 5. Can also be a range, e.g. B4:C3.</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -164,7 +183,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -175,6 +213,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58AB90E0-8AD9-334B-9C1C-ACBD711C0293}" name="PlanTable" displayName="PlanTable" ref="B11:D13" totalsRowShown="0">
+  <autoFilter ref="B11:D13" xr:uid="{7183650E-900B-D140-A269-4D6F896DB0BF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5C016BAD-9FBD-CE49-94E9-88445A35562D}" name="Area" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{34AE911A-0D98-534A-AFF6-D1C32150F548}" name="Profit"/>
+    <tableColumn id="3" xr3:uid="{F7752A5B-BB37-0340-93D8-F844021C3290}" name="Loss"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
-  <dimension ref="B3:F9"/>
+  <dimension ref="B3:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.0859375" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -509,15 +559,55 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -525,16 +615,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.51171875" customWidth="1"/>
-    <col min="2" max="2" width="12.5078125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18C9C022-7E50-E542-8056-DA1F0872C87D}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -44,81 +44,18 @@
     <t>Alpha</t>
   </si>
   <si>
-    <t>Filename</t>
-  </si>
-  <si>
     <t>source.xlsx</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Column offset</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Cell value</t>
-  </si>
-  <si>
-    <t>Becomes variable ${filename}; can be regex</t>
-  </si>
-  <si>
-    <t>Can be a single cell or a range, by name or reference</t>
-  </si>
-  <si>
-    <t>Match on cell value</t>
-  </si>
-  <si>
-    <t>The target cell is one column over from the matched cell</t>
-  </si>
-  <si>
     <t>Alpha, Jan</t>
   </si>
   <si>
     <t>&lt;placeholder&gt;</t>
   </si>
   <si>
-    <t>Alpha January</t>
-  </si>
-  <si>
-    <t>$C$3</t>
-  </si>
-  <si>
-    <t>$C$4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>Row value</t>
-  </si>
-  <si>
-    <t>Column value</t>
-  </si>
-  <si>
-    <t>Jan.*</t>
-  </si>
-  <si>
-    <t>Match regular expression</t>
-  </si>
-  <si>
-    <t>Look in row matching "Alpha"</t>
-  </si>
-  <si>
-    <t>Place a specific cell into a specific target cell</t>
-  </si>
-  <si>
-    <t>Look up a value in a table and place into a specific target cell</t>
-  </si>
-  <si>
-    <t>Search range</t>
-  </si>
-  <si>
-    <t>Start searching from column B, row 5. Can also be a range, e.g. B4:C3.</t>
-  </si>
-  <si>
     <t>Profit</t>
   </si>
   <si>
@@ -132,6 +69,33 @@
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>Import date</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Report 1</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Target cell</t>
+  </si>
+  <si>
+    <t>DATE_TARGET</t>
   </si>
 </sst>
 </file>
@@ -526,13 +490,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
   <dimension ref="B3:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.22265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -540,15 +504,15 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -563,20 +527,20 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -584,13 +548,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -600,7 +564,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -613,134 +577,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="5.51171875" customWidth="1"/>
+    <col min="2" max="2" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.203125" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18C9C022-7E50-E542-8056-DA1F0872C87D}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAACBF53-9864-0C42-A918-742F89E7E046}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -139,10 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
   <dimension ref="B3:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -503,7 +504,7 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -579,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAACBF53-9864-0C42-A918-742F89E7E046}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A57266C-867D-3B43-B2EE-97A81DA8E494}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -96,6 +96,36 @@
   </si>
   <si>
     <t>DATE_TARGET</t>
+  </si>
+  <si>
+    <t>Alpha search</t>
+  </si>
+  <si>
+    <t>Start value</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Start column offset</t>
+  </si>
+  <si>
+    <t>Find a contiguous table starting one column to the left of "Jan"</t>
+  </si>
+  <si>
+    <t>Source column value</t>
+  </si>
+  <si>
+    <t>Source row value</t>
+  </si>
+  <si>
+    <t>Target intersection of Jan and Alpha</t>
+  </si>
+  <si>
+    <t>Summary!C5</t>
+  </si>
+  <si>
+    <t>Put in C5</t>
   </si>
 </sst>
 </file>
@@ -491,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
   <dimension ref="B3:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -578,21 +608,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.51171875" customWidth="1"/>
-    <col min="2" max="2" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.203125" customWidth="1"/>
     <col min="4" max="4" width="11.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -603,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -614,7 +644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -625,7 +655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -636,7 +666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
@@ -647,29 +677,94 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A57266C-867D-3B43-B2EE-97A81DA8E494}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09CDCB70-51DD-E74D-B1E5-3869EC5B2931}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Alpha, Jan</t>
-  </si>
-  <si>
     <t>&lt;placeholder&gt;</t>
   </si>
   <si>
@@ -119,13 +116,22 @@
     <t>Source row value</t>
   </si>
   <si>
-    <t>Target intersection of Jan and Alpha</t>
-  </si>
-  <si>
     <t>Summary!C5</t>
   </si>
   <si>
     <t>Put in C5</t>
+  </si>
+  <si>
+    <t>matches</t>
+  </si>
+  <si>
+    <t>Mar.*</t>
+  </si>
+  <si>
+    <t>Target intersection of Mar (using a regex search in caes it says March) and Beta</t>
+  </si>
+  <si>
+    <t>Table search</t>
   </si>
 </sst>
 </file>
@@ -521,13 +527,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
   <dimension ref="B3:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.22265625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5078125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -535,15 +542,15 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -558,20 +565,20 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -579,13 +586,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -595,7 +602,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -610,24 +617,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.51171875" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.203125" customWidth="1"/>
+    <col min="2" max="2" width="17.890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -638,43 +645,43 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -685,43 +692,43 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -729,41 +736,41 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09CDCB70-51DD-E74D-B1E5-3869EC5B2931}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22916DB4-FAB4-AE44-8F11-AD1AADC9FD3F}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -132,6 +132,48 @@
   </si>
   <si>
     <t>Table search</t>
+  </si>
+  <si>
+    <t>Target table</t>
+  </si>
+  <si>
+    <t>PROFIT_RANGE</t>
+  </si>
+  <si>
+    <t>Align</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Profit row</t>
+  </si>
+  <si>
+    <t>Match a regular expression ending in "3"</t>
+  </si>
+  <si>
+    <t>(.*) 3$</t>
+  </si>
+  <si>
+    <t>Populate the profit row from the profit Plan column</t>
+  </si>
+  <si>
+    <t>Note that this is a merged cell, but it’s easier to think of it as just a single cell at the start of the merged range</t>
+  </si>
+  <si>
+    <t>Source row column offset</t>
+  </si>
+  <si>
+    <t>Target column value</t>
+  </si>
+  <si>
+    <t>It’s conincidental that this reference in the target workbook has the same name as the one from the source workbook!</t>
+  </si>
+  <si>
+    <t>... and the same is true of the column label</t>
+  </si>
+  <si>
+    <t>The Plan column is one over from the start of the merged Profit header cell above it (it’s also on the next row, but that doesn’t really matter because we use Align to align labels from the first column)</t>
   </si>
 </sst>
 </file>
@@ -615,18 +657,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.51171875" customWidth="1"/>
-    <col min="2" max="2" width="17.890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.05859375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" customWidth="1"/>
+    <col min="4" max="4" width="13.31640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.15234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
@@ -773,17 +816,111 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22916DB4-FAB4-AE44-8F11-AD1AADC9FD3F}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEBF4EA7-DD1E-7041-800C-2C5296B2DF87}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -149,31 +149,34 @@
     <t>Profit row</t>
   </si>
   <si>
+    <t>Populate the profit row from the profit £ column</t>
+  </si>
+  <si>
     <t>Match a regular expression ending in "3"</t>
   </si>
   <si>
     <t>(.*) 3$</t>
   </si>
   <si>
-    <t>Populate the profit row from the profit Plan column</t>
-  </si>
-  <si>
-    <t>Note that this is a merged cell, but it’s easier to think of it as just a single cell at the start of the merged range</t>
-  </si>
-  <si>
     <t>Source row column offset</t>
   </si>
   <si>
-    <t>Target column value</t>
-  </si>
-  <si>
     <t>It’s conincidental that this reference in the target workbook has the same name as the one from the source workbook!</t>
   </si>
   <si>
     <t>... and the same is true of the column label</t>
   </si>
   <si>
-    <t>The Plan column is one over from the start of the merged Profit header cell above it (it’s also on the next row, but that doesn’t really matter because we use Align to align labels from the first column)</t>
+    <t>Source columnvalue</t>
+  </si>
+  <si>
+    <t>Note that this is a merged cell, but it’s easier to think of it as just a single cell at the end of the merged range</t>
+  </si>
+  <si>
+    <t>The £ column is one over from the start of the merged Profit header cell above it (it’s also on the next row, but that doesn’t really matter because we use Align to align labels from the first column)</t>
+  </si>
+  <si>
+    <t>Target row value</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -827,7 +830,7 @@
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -849,10 +852,10 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
         <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -868,7 +871,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -877,18 +880,18 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F22" t="s">
         <v>45</v>
@@ -905,12 +908,12 @@
         <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -919,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEBF4EA7-DD1E-7041-800C-2C5296B2DF87}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A98FA77F-2F9D-7A4A-A72D-858FEE0C3961}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>... and the same is true of the column label</t>
-  </si>
-  <si>
-    <t>Source columnvalue</t>
   </si>
   <si>
     <t>Note that this is a merged cell, but it’s easier to think of it as just a single cell at the end of the merged range</t>
@@ -572,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
   <dimension ref="B3:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -662,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -871,7 +868,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -880,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -894,7 +891,7 @@
         <v>-1</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -913,7 +910,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A98FA77F-2F9D-7A4A-A72D-858FEE0C3961}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAAEDABC-0447-164D-A2A1-8DCB36C385A8}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -152,12 +152,6 @@
     <t>Populate the profit row from the profit £ column</t>
   </si>
   <si>
-    <t>Match a regular expression ending in "3"</t>
-  </si>
-  <si>
-    <t>(.*) 3$</t>
-  </si>
-  <si>
     <t>Source row column offset</t>
   </si>
   <si>
@@ -174,6 +168,12 @@
   </si>
   <si>
     <t>Target row value</t>
+  </si>
+  <si>
+    <t>Loss row</t>
+  </si>
+  <si>
+    <t>Do the same for the loss row, but keep it simple this time</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
   <dimension ref="B3:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -657,10 +657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
-  <dimension ref="B2:F24"/>
+  <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -843,83 +843,149 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
-        <v>5</v>
+      <c r="D21">
+        <v>-1</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22">
-        <v>-1</v>
+      <c r="D22" t="s">
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
         <v>33</v>
       </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAAEDABC-0447-164D-A2A1-8DCB36C385A8}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDCF0A73-FA7F-CD47-A7D1-1366D4EBAABB}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -77,18 +77,12 @@
     <t>Import date</t>
   </si>
   <si>
-    <t>Cell</t>
-  </si>
-  <si>
     <t>Sheet</t>
   </si>
   <si>
     <t>Report 1</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>Target cell</t>
   </si>
   <si>
@@ -174,6 +168,39 @@
   </si>
   <si>
     <t>Do the same for the loss row, but keep it simple this time</t>
+  </si>
+  <si>
+    <t>Copy and expand a table</t>
+  </si>
+  <si>
+    <t>Copy a single value from a table using a search on row/column labels</t>
+  </si>
+  <si>
+    <t>Copy a single value by searching for its label</t>
+  </si>
+  <si>
+    <t>Cell value</t>
+  </si>
+  <si>
+    <t>Column offset</t>
+  </si>
+  <si>
+    <t>The label</t>
+  </si>
+  <si>
+    <t>Value is in the adjacent cell</t>
+  </si>
+  <si>
+    <t>Report 2</t>
+  </si>
+  <si>
+    <t>RangleTable</t>
+  </si>
+  <si>
+    <t>PlanTable</t>
+  </si>
+  <si>
+    <t>Expand</t>
   </si>
 </sst>
 </file>
@@ -570,7 +597,7 @@
   <dimension ref="B3:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -589,7 +616,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -657,10 +684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
-  <dimension ref="B2:F31"/>
+  <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -693,299 +720,380 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>-1</v>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
-        <v>33</v>
+      <c r="D19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21">
-        <v>-1</v>
+      <c r="D21" t="s">
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
-        <v>33</v>
+      <c r="D22">
+        <v>-1</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
         <v>5</v>
       </c>
-      <c r="F23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
+      <c r="F24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D27" t="s">
-        <v>33</v>
+      <c r="D27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
-      <c r="D29">
-        <v>-1</v>
+      <c r="D29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
-        <v>33</v>
+      <c r="D30">
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDCF0A73-FA7F-CD47-A7D1-1366D4EBAABB}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7BCE40C-CD04-6947-BD40-E2B9C3CBE672}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -170,18 +170,12 @@
     <t>Do the same for the loss row, but keep it simple this time</t>
   </si>
   <si>
-    <t>Copy and expand a table</t>
-  </si>
-  <si>
     <t>Copy a single value from a table using a search on row/column labels</t>
   </si>
   <si>
     <t>Copy a single value by searching for its label</t>
   </si>
   <si>
-    <t>Cell value</t>
-  </si>
-  <si>
     <t>Column offset</t>
   </si>
   <si>
@@ -191,16 +185,7 @@
     <t>Value is in the adjacent cell</t>
   </si>
   <si>
-    <t>Report 2</t>
-  </si>
-  <si>
-    <t>RangleTable</t>
-  </si>
-  <si>
-    <t>PlanTable</t>
-  </si>
-  <si>
-    <t>Expand</t>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -596,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
   <dimension ref="B3:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -684,10 +669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
-  <dimension ref="B2:F38"/>
+  <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -721,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -737,7 +722,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -746,12 +731,12 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -760,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -788,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -1036,64 +1021,6 @@
       </c>
       <c r="D32" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7BCE40C-CD04-6947-BD40-E2B9C3CBE672}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9386B77-41F9-D941-A25F-0478353949F9}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -185,7 +185,25 @@
     <t>Value is in the adjacent cell</t>
   </si>
   <si>
+    <t>RangleTable</t>
+  </si>
+  <si>
+    <t>PlanTable</t>
+  </si>
+  <si>
+    <t>Expand</t>
+  </si>
+  <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Replace table</t>
+  </si>
+  <si>
+    <t>(Yes, it’s a typo)</t>
+  </si>
+  <si>
+    <t>Copy from one table to another</t>
   </si>
 </sst>
 </file>
@@ -581,9 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
   <dimension ref="B3:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -669,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
-  <dimension ref="B2:F32"/>
+  <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -722,7 +738,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1021,6 +1037,56 @@
       </c>
       <c r="D32" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9386B77-41F9-D941-A25F-0478353949F9}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B072C25-A406-4D45-B927-64C37F6709D5}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -188,9 +188,6 @@
     <t>RangleTable</t>
   </si>
   <si>
-    <t>PlanTable</t>
-  </si>
-  <si>
     <t>Expand</t>
   </si>
   <si>
@@ -204,6 +201,15 @@
   </si>
   <si>
     <t>Copy from one table to another</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Table3</t>
   </si>
 </sst>
 </file>
@@ -256,7 +262,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -292,11 +316,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58AB90E0-8AD9-334B-9C1C-ACBD711C0293}" name="PlanTable" displayName="PlanTable" ref="B11:D13" totalsRowShown="0">
   <autoFilter ref="B11:D13" xr:uid="{7183650E-900B-D140-A269-4D6F896DB0BF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C016BAD-9FBD-CE49-94E9-88445A35562D}" name="Area" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5C016BAD-9FBD-CE49-94E9-88445A35562D}" name="Area" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{34AE911A-0D98-534A-AFF6-D1C32150F548}" name="Profit"/>
     <tableColumn id="3" xr3:uid="{F7752A5B-BB37-0340-93D8-F844021C3290}" name="Loss"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{59CF296E-9158-0A4D-9B5E-16AA8BA59589}" name="Table3" displayName="Table3" ref="B15:E16" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B15:E16" xr:uid="{EDF16454-6008-114C-B871-7C3960F8F0BE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7D7D98A6-2BDB-8C46-9C10-0BEBBDD96AF7}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{B9F42C18-7B81-A648-818F-A8BDBA46B6D6}" name="Date"/>
+    <tableColumn id="3" xr3:uid="{DCFF12C8-0522-6C4A-A9FA-7D9EEB7F00FA}" name="Range"/>
+    <tableColumn id="4" xr3:uid="{6378C6C7-568D-CF4D-ACC3-9337B386C06F}" name="Price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -597,9 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
-  <dimension ref="B3:F13"/>
+  <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -675,10 +714,25 @@
         <v>8</v>
       </c>
     </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -687,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
   <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -738,7 +792,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1047,10 +1101,10 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
@@ -1064,7 +1118,7 @@
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -1075,12 +1129,12 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B072C25-A406-4D45-B927-64C37F6709D5}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A467ADC3-9359-6047-B039-B495590E882C}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Config" sheetId="2" r:id="rId2"/>
+    <sheet name="Cars" sheetId="3" r:id="rId2"/>
+    <sheet name="Config" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="DATE_TARGET">Summary!$C$3</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -210,6 +211,30 @@
   </si>
   <si>
     <t>Table3</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Expand table</t>
+  </si>
+  <si>
+    <t>Tablle</t>
+  </si>
+  <si>
+    <t>CARS_RANGE</t>
+  </si>
+  <si>
+    <t>Cars!A1:B2</t>
   </si>
 </sst>
 </file>
@@ -636,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
   <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -738,11 +763,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E434A99-7FB6-B24C-B803-03210F1294A8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
-  <dimension ref="B2:F37"/>
+  <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1143,6 +1199,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A467ADC3-9359-6047-B039-B495590E882C}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D80338F-5D7D-6944-833F-50823B01D17C}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>Cars!A1:B2</t>
+  </si>
+  <si>
+    <t>Fully replace a table and expand both rows and columns</t>
+  </si>
+  <si>
+    <t>Move over</t>
+  </si>
+  <si>
+    <t>Move down</t>
   </si>
 </sst>
 </file>
@@ -661,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
   <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -764,28 +773,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E434A99-7FB6-B24C-B803-03210F1294A8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -797,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
   <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1209,6 +1226,9 @@
       <c r="D39" t="s">
         <v>62</v>
       </c>
+      <c r="F39" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D80338F-5D7D-6944-833F-50823B01D17C}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08A3FA28-02EA-0D45-9671-C48286F7B1C9}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>Expand table</t>
-  </si>
-  <si>
-    <t>Tablle</t>
   </si>
   <si>
     <t>CARS_RANGE</t>
@@ -670,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
   <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,7 +773,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -789,7 +786,7 @@
         <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -802,7 +799,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -814,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
   <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1227,18 +1224,18 @@
         <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
         <v>63</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -1249,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08A3FA28-02EA-0D45-9671-C48286F7B1C9}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDE9716D-DA73-1647-925D-E8754280B2EF}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Alpha</t>
   </si>
   <si>
-    <t>source.xlsx</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -241,6 +238,30 @@
   </si>
   <si>
     <t>Move down</t>
+  </si>
+  <si>
+    <t>&lt;lookup&gt;</t>
+  </si>
+  <si>
+    <t>Lookup variable</t>
+  </si>
+  <si>
+    <t>${file}</t>
+  </si>
+  <si>
+    <t>(s.+).xlsx</t>
+  </si>
+  <si>
+    <t>matches filename source.xlsx, variable extracted is ${file} with value "source" (matches the portion in brackets)</t>
+  </si>
+  <si>
+    <t>Uses a variable substitution</t>
+  </si>
+  <si>
+    <t>Find the next cell over</t>
+  </si>
+  <si>
+    <t>Summary!F3</t>
   </si>
 </sst>
 </file>
@@ -667,9 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
   <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -682,15 +701,21 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -705,20 +730,20 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -726,13 +751,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -742,21 +767,21 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -780,26 +805,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
-        <v>59</v>
-      </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -809,10 +834,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626B707-217E-9C4B-A063-5643146AE8A2}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="B2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -826,77 +851,80 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -904,49 +932,49 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -954,63 +982,63 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
         <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
         <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1018,91 +1046,91 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>-1</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s">
         <v>42</v>
-      </c>
-      <c r="F26" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -1110,32 +1138,32 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>-1</v>
@@ -1143,71 +1171,71 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
         <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -1215,49 +1243,110 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10610"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDE9716D-DA73-1647-925D-E8754280B2EF}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA5C192D-2D13-EA4D-8DD3-8EB97D43AC23}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Cars" sheetId="3" r:id="rId2"/>
     <sheet name="Config" sheetId="2" r:id="rId3"/>
+    <sheet name="Separate" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="DATE_TARGET">Summary!$C$3</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -362,6 +363,1897 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>P/L</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$12:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Alpha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$12:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-21CC-A34D-9D78-DCED788543EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$12:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Alpha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$D$12:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-21CC-A34D-9D78-DCED788543EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="241883328"/>
+        <c:axId val="241888240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="241883328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241888240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="241888240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241883328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Numbers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Separate!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>One</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Two</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Three</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Separate!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E9F7-3143-A536-A016A7709D7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="775333696"/>
+        <c:axId val="775335344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="775333696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="775335344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="775335344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="775333696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>27515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431801</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55032</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0C99AE-2154-7B40-A578-A267B57807AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>150283</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>141817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>455083</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27517</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97ED629-42F4-FF4B-98F5-105A3325331C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,9 +2578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
-  <dimension ref="B3:F15"/>
+  <dimension ref="B3:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -696,7 +2590,7 @@
     <col min="3" max="3" width="12.5078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,8 +2603,12 @@
       <c r="F3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H3" t="str">
+        <f>IF(DATE_TARGET="&lt;placeholder&gt;", "Not replaced", "Replaced")</f>
+        <v>Not replaced</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
@@ -721,10 +2619,10 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -736,20 +2634,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -760,17 +2658,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
@@ -786,9 +2684,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1352,4 +3251,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE512EF-705D-CA47-AE86-A07C92EA8213}">
+  <dimension ref="B4:C6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/xlsx_extract/test_data/target.xlsx
+++ b/src/xlsx_extract/test_data/target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maraspeli/Build/Python/xlsx-extract/src/xlsx_extract/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA5C192D-2D13-EA4D-8DD3-8EB97D43AC23}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="13_ncr:1_{3AB30441-7E70-BB4B-92EF-384BB0155177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{209173EF-7E52-8F4B-9F36-C6F2D741C3CD}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2260" windowWidth="20360" windowHeight="14560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Summary!F3</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -380,32 +383,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>P/L</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -446,11 +423,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$C$11</c:f>
+              <c:f>Summary!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Profit</c:v>
+                  <c:v>Range</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -467,89 +444,19 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$B$12:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Alpha</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$12:$C$13</c:f>
+              <c:f>Summary!$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-21CC-A34D-9D78-DCED788543EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$D$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$B$12:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Alpha</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$D$12:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-21CC-A34D-9D78-DCED788543EF}"/>
+              <c16:uniqueId val="{00000001-2E70-F749-88F7-A0596C34066F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -562,17 +469,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="241883328"/>
-        <c:axId val="241888240"/>
+        <c:axId val="415759728"/>
+        <c:axId val="415830208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="241883328"/>
+        <c:axId val="415759728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -609,7 +515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241888240"/>
+        <c:crossAx val="415830208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -617,7 +523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241888240"/>
+        <c:axId val="415830208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,7 +574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241883328"/>
+        <c:crossAx val="415759728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2179,22 +2085,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>27515</xdr:rowOff>
+      <xdr:colOff>103716</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>431801</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>55032</xdr:rowOff>
+      <xdr:colOff>194734</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0C99AE-2154-7B40-A578-A267B57807AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6B1870F-945B-AF49-A0AD-F9609B8F5C4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,8 +2486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952CAC-5724-BE41-916A-7E83B1848A30}">
   <dimension ref="B3:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3255,11 +3161,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE512EF-705D-CA47-AE86-A07C92EA8213}">
-  <dimension ref="B4:C6"/>
+  <dimension ref="B4:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3287,6 +3191,15 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C4:C6)</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
